--- a/docs/rules/data/magic/召唤法术.xlsx
+++ b/docs/rules/data/magic/召唤法术.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xp-wiki\docs\rules\data\magic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93792D02-D6A0-449E-9FFF-D02F7127E50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7B46F9-BBDA-4981-8930-B89177FF1316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="826" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3146,7 +3146,7 @@
           </rPr>
           <t xml:space="preserve">
 投入150g，获得死亡翻滚效果
-死亡翻滚：在老虎钳生效的状态下使用，攻击时消耗10点SP触发，成功则可对目标造成相当于自己当前生命值一半的固伤
+死亡翻滚：攻击时选择触发，不消耗SP，一边进攻一边横向翻滚2格距离，不会遭受借机；在老虎钳生效的状态下使用，攻击时消耗10点SP触发，成功则可对目标造成相当于自己当前生命值一半的固伤，并连对手一起横向翻滚2格距离，不会遭受借机
 框框中的数值表示是否有这个效果，0表示没有，1表示有</t>
         </r>
       </text>
@@ -4320,41 +4320,41 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4374,8 +4374,71 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4404,88 +4467,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4778,7 +4778,7 @@
   <dimension ref="A1:AE49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D4"/>
+      <selection activeCell="C7" sqref="C7:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4791,116 +4791,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="F1" s="29" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="F1" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="31"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="52"/>
     </row>
     <row r="2" spans="1:31" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="34"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="55"/>
     </row>
     <row r="3" spans="1:31" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="16">
+      <c r="B3" s="63"/>
+      <c r="C3" s="65">
         <v>1000</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="65"/>
       <c r="F3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="28"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
       <c r="AE3" s="27"/>
     </row>
     <row r="4" spans="1:31" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
       <c r="F4" s="2" t="s">
         <v>1</v>
       </c>
@@ -4928,99 +4928,99 @@
       <c r="N4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="41" t="s">
+      <c r="O4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="41" t="s">
+      <c r="P4" s="33"/>
+      <c r="Q4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="R4" s="42"/>
-      <c r="S4" s="47" t="s">
+      <c r="R4" s="33"/>
+      <c r="S4" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="48" t="s">
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="49"/>
-      <c r="AA4" s="50"/>
-      <c r="AB4" s="20" t="s">
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="AC4" s="21"/>
+      <c r="AC4" s="39"/>
       <c r="AD4" s="26" t="s">
         <v>35</v>
       </c>
       <c r="AE4" s="27"/>
     </row>
     <row r="5" spans="1:31" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="16">
-        <v>0</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="F5" s="10" t="s">
+      <c r="B5" s="59"/>
+      <c r="C5" s="65">
+        <v>0</v>
+      </c>
+      <c r="D5" s="65"/>
+      <c r="F5" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="28">
         <v>300</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="31">
         <v>2</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="28">
         <v>2</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="28">
         <f>20+J7</f>
         <v>20</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="28">
         <v>20</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="28">
         <f>2+M7</f>
         <v>2</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="43" t="s">
+      <c r="O5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="43" t="s">
+      <c r="P5" s="13"/>
+      <c r="Q5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="44"/>
+      <c r="R5" s="13"/>
       <c r="S5" s="6" t="s">
         <v>32</v>
       </c>
       <c r="T5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="38" t="s">
+      <c r="U5" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="39"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="51" t="s">
+      <c r="V5" s="42"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="53"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="18"/>
       <c r="AB5" s="22">
         <f>J7*10+M7*20+S7*30+T7*30+W7*80+X7*50+Y7*80+Z7*100</f>
         <v>0</v>
@@ -5033,23 +5033,23 @@
       <c r="AE5" s="23"/>
     </row>
     <row r="6" spans="1:31" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="46"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="15"/>
       <c r="S6" s="7" t="str">
         <f>IF(S7=0,"初级",IF(S7=1,"中级",IF(S7=2,"上级","不合法")))</f>
         <v>初级</v>
@@ -5058,30 +5058,30 @@
         <f>IF(T7=0,"初级",IF(T7=1,"中级",IF(T7=2,"上级","不合法")))</f>
         <v>初级</v>
       </c>
-      <c r="U6" s="38" t="s">
+      <c r="U6" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="V6" s="39"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="54"/>
-      <c r="Y6" s="55"/>
-      <c r="Z6" s="55"/>
-      <c r="AA6" s="56"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="21"/>
       <c r="AB6" s="24"/>
       <c r="AC6" s="25"/>
       <c r="AD6" s="24"/>
       <c r="AE6" s="25"/>
     </row>
     <row r="7" spans="1:31" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="57">
+      <c r="B7" s="59"/>
+      <c r="C7" s="60">
         <f>C3-C5</f>
         <v>1000</v>
       </c>
-      <c r="D7" s="57"/>
+      <c r="D7" s="60"/>
       <c r="F7" s="5">
         <v>0.5</v>
       </c>
@@ -5118,10 +5118,10 @@
       </c>
     </row>
     <row r="8" spans="1:31" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
       <c r="F8" s="2" t="s">
         <v>1</v>
       </c>
@@ -5149,102 +5149,102 @@
       <c r="N8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="41" t="s">
+      <c r="O8" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="41" t="s">
+      <c r="P8" s="33"/>
+      <c r="Q8" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="R8" s="42"/>
-      <c r="S8" s="47" t="s">
+      <c r="R8" s="33"/>
+      <c r="S8" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="48" t="s">
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="Y8" s="49"/>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="50"/>
-      <c r="AB8" s="20" t="s">
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="AC8" s="21"/>
+      <c r="AC8" s="39"/>
       <c r="AD8" s="26" t="s">
         <v>35</v>
       </c>
       <c r="AE8" s="27"/>
     </row>
     <row r="9" spans="1:31" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="37" t="e">
+      <c r="B9" s="56"/>
+      <c r="C9" s="58" t="e">
         <f ca="1">INDIRECT("经历点数与履历"&amp;"!$E$3")</f>
         <v>#REF!</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="F9" s="10" t="s">
+      <c r="D9" s="58"/>
+      <c r="F9" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="28">
         <v>400</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="31">
         <v>2</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="28">
         <v>2</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="28">
         <f>20+J11</f>
         <v>20</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="28">
         <f>20+J11</f>
         <v>20</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="28">
         <f>7+L11</f>
         <v>7</v>
       </c>
-      <c r="M9" s="10">
-        <v>0</v>
-      </c>
-      <c r="N9" s="10">
+      <c r="M9" s="28">
+        <v>0</v>
+      </c>
+      <c r="N9" s="28">
         <f>IF(X11=0,1,2)</f>
         <v>1</v>
       </c>
-      <c r="O9" s="43" t="s">
+      <c r="O9" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="43" t="s">
+      <c r="P9" s="13"/>
+      <c r="Q9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="R9" s="44"/>
+      <c r="R9" s="13"/>
       <c r="S9" s="6" t="s">
         <v>40</v>
       </c>
       <c r="T9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="U9" s="38" t="s">
+      <c r="U9" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="39"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="51" t="s">
+      <c r="V9" s="42"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="53"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="18"/>
       <c r="AB9" s="22">
         <f>J11*10+L11*20+S11*30+T11*30+W11*80+X11*50+Y11*80+Z11*100</f>
         <v>0</v>
@@ -5257,23 +5257,23 @@
       <c r="AE9" s="23"/>
     </row>
     <row r="10" spans="1:31" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="46"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="15"/>
       <c r="S10" s="7" t="str">
         <f>IF(S11=0,"初级",IF(S11=1,"中级",IF(S11=2,"上级","不合法")))</f>
         <v>初级</v>
@@ -5282,15 +5282,15 @@
         <f>IF(T11=0,"初级",IF(T11=1,"中级",IF(T11=2,"上级","不合法")))</f>
         <v>初级</v>
       </c>
-      <c r="U10" s="38" t="s">
+      <c r="U10" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="V10" s="39"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="54"/>
-      <c r="Y10" s="55"/>
-      <c r="Z10" s="55"/>
-      <c r="AA10" s="56"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="21"/>
       <c r="AB10" s="24"/>
       <c r="AC10" s="25"/>
       <c r="AD10" s="24"/>
@@ -5304,10 +5304,10 @@
         <f ca="1">INDIRECT("R[-2]C[0]",)*INDIRECT("R[0]C[-1]",)+INDIRECT("$C$9")*10</f>
         <v>#REF!</v>
       </c>
-      <c r="J11" s="58">
-        <v>0</v>
-      </c>
-      <c r="K11" s="59"/>
+      <c r="J11" s="10">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11"/>
       <c r="L11" s="5">
         <v>0</v>
       </c>
@@ -5361,91 +5361,91 @@
       <c r="N12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O12" s="41" t="s">
+      <c r="O12" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="41" t="s">
+      <c r="P12" s="33"/>
+      <c r="Q12" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="R12" s="42"/>
-      <c r="S12" s="47" t="s">
+      <c r="R12" s="33"/>
+      <c r="S12" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="48" t="s">
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="Y12" s="49"/>
-      <c r="Z12" s="49"/>
-      <c r="AA12" s="50"/>
-      <c r="AB12" s="20" t="s">
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="AC12" s="21"/>
+      <c r="AC12" s="39"/>
       <c r="AD12" s="26" t="s">
         <v>35</v>
       </c>
       <c r="AE12" s="27"/>
     </row>
     <row r="13" spans="1:31" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="28">
         <v>350</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="31">
         <v>2</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="28">
         <v>2</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="28">
         <f>15+J15</f>
         <v>15</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="28">
         <v>20</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="28">
         <f>8+L15</f>
         <v>8</v>
       </c>
-      <c r="M13" s="10">
-        <v>0</v>
-      </c>
-      <c r="N13" s="10">
+      <c r="M13" s="28">
+        <v>0</v>
+      </c>
+      <c r="N13" s="28">
         <v>1</v>
       </c>
-      <c r="O13" s="43" t="s">
+      <c r="O13" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="43" t="s">
+      <c r="P13" s="13"/>
+      <c r="Q13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="R13" s="44"/>
+      <c r="R13" s="13"/>
       <c r="S13" s="6" t="s">
         <v>44</v>
       </c>
       <c r="T13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="U13" s="38" t="s">
+      <c r="U13" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="V13" s="39"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="51" t="s">
+      <c r="V13" s="42"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="Y13" s="52"/>
-      <c r="Z13" s="52"/>
-      <c r="AA13" s="53"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="18"/>
       <c r="AB13" s="22">
         <f>J15*10+L15*20+S15*30+T15*30+W15*80+X15*50+Y15*80+Z15*100</f>
         <v>0</v>
@@ -5458,19 +5458,19 @@
       <c r="AE13" s="23"/>
     </row>
     <row r="14" spans="1:31" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F14" s="11"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="46"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="15"/>
       <c r="S14" s="7" t="str">
         <f>IF(S15=0,"初级",IF(S15=1,"中级",IF(S15=2,"上级","不合法")))</f>
         <v>初级</v>
@@ -5479,15 +5479,15 @@
         <f>IF(T15=0,"初级",IF(T15=1,"中级",IF(T15=2,"上级","不合法")))</f>
         <v>初级</v>
       </c>
-      <c r="U14" s="38" t="s">
+      <c r="U14" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="V14" s="39"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="54"/>
-      <c r="Y14" s="55"/>
-      <c r="Z14" s="55"/>
-      <c r="AA14" s="56"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="21"/>
       <c r="AB14" s="24"/>
       <c r="AC14" s="25"/>
       <c r="AD14" s="24"/>
@@ -5557,87 +5557,87 @@
       <c r="N16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O16" s="41" t="s">
+      <c r="O16" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="41" t="s">
+      <c r="P16" s="33"/>
+      <c r="Q16" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="R16" s="42"/>
-      <c r="S16" s="47" t="s">
+      <c r="R16" s="33"/>
+      <c r="S16" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="T16" s="47"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="47"/>
-      <c r="X16" s="48" t="s">
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="Y16" s="49"/>
-      <c r="Z16" s="49"/>
-      <c r="AA16" s="50"/>
-      <c r="AB16" s="20" t="s">
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="AC16" s="21"/>
+      <c r="AC16" s="39"/>
       <c r="AD16" s="26" t="s">
         <v>35</v>
       </c>
       <c r="AE16" s="27"/>
     </row>
     <row r="17" spans="1:31" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="28">
         <v>450</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="31">
         <v>3</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="28">
         <v>3</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="28">
         <f>15+J19</f>
         <v>15</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="28">
         <v>30</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="L17" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="28">
         <v>2</v>
       </c>
-      <c r="N17" s="10">
+      <c r="N17" s="28">
         <f>4+N19</f>
         <v>4</v>
       </c>
-      <c r="O17" s="43" t="s">
+      <c r="O17" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="43" t="s">
+      <c r="P17" s="13"/>
+      <c r="Q17" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="R17" s="44"/>
-      <c r="S17" s="51" t="s">
+      <c r="R17" s="13"/>
+      <c r="S17" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="T17" s="60"/>
-      <c r="U17" s="60"/>
-      <c r="V17" s="60"/>
-      <c r="W17" s="61"/>
-      <c r="X17" s="51" t="s">
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="52"/>
-      <c r="AA17" s="53"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="18"/>
       <c r="AB17" s="22">
         <f>J19*10+N19*30+W19*80+X19*50+Y19*80+Z19*100</f>
         <v>0</v>
@@ -5650,28 +5650,28 @@
       <c r="AE17" s="23"/>
     </row>
     <row r="18" spans="1:31" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F18" s="11"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="62"/>
-      <c r="T18" s="63"/>
-      <c r="U18" s="63"/>
-      <c r="V18" s="63"/>
-      <c r="W18" s="64"/>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="55"/>
-      <c r="Z18" s="55"/>
-      <c r="AA18" s="56"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="21"/>
       <c r="AB18" s="24"/>
       <c r="AC18" s="25"/>
       <c r="AD18" s="24"/>
@@ -5735,89 +5735,89 @@
       <c r="N20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O20" s="41" t="s">
+      <c r="O20" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="41" t="s">
+      <c r="P20" s="33"/>
+      <c r="Q20" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="R20" s="42"/>
-      <c r="S20" s="47" t="s">
+      <c r="R20" s="33"/>
+      <c r="S20" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="48" t="s">
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="Y20" s="49"/>
-      <c r="Z20" s="49"/>
-      <c r="AA20" s="50"/>
-      <c r="AB20" s="20" t="s">
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="37"/>
+      <c r="AB20" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="AC20" s="21"/>
+      <c r="AC20" s="39"/>
       <c r="AD20" s="26" t="s">
         <v>35</v>
       </c>
       <c r="AE20" s="27"/>
     </row>
     <row r="21" spans="1:31" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="28">
         <v>500</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="31">
         <v>3</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="28">
         <v>3</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="28">
         <f>20+J23</f>
         <v>20</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="28">
         <f>30+J23</f>
         <v>30</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="28">
         <f>7+L23</f>
         <v>7</v>
       </c>
-      <c r="M21" s="10">
+      <c r="M21" s="28">
         <v>2</v>
       </c>
-      <c r="N21" s="10">
+      <c r="N21" s="28">
         <f>6+N23</f>
         <v>6</v>
       </c>
-      <c r="O21" s="43" t="s">
+      <c r="O21" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="43" t="s">
+      <c r="P21" s="13"/>
+      <c r="Q21" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="R21" s="44"/>
-      <c r="S21" s="51" t="s">
+      <c r="R21" s="13"/>
+      <c r="S21" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="T21" s="60"/>
-      <c r="U21" s="60"/>
-      <c r="V21" s="60"/>
-      <c r="W21" s="61"/>
-      <c r="X21" s="51" t="s">
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="Y21" s="52"/>
-      <c r="Z21" s="52"/>
-      <c r="AA21" s="53"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="18"/>
       <c r="AB21" s="22">
         <f>J23*10+L23*20+N23*30+W23*80+X23*50+Y23*80+Z23*100</f>
         <v>0</v>
@@ -5830,28 +5830,28 @@
       <c r="AE21" s="23"/>
     </row>
     <row r="22" spans="1:31" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="11"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="63"/>
-      <c r="U22" s="63"/>
-      <c r="V22" s="63"/>
-      <c r="W22" s="64"/>
-      <c r="X22" s="54"/>
-      <c r="Y22" s="55"/>
-      <c r="Z22" s="55"/>
-      <c r="AA22" s="56"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="49"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="21"/>
       <c r="AB22" s="24"/>
       <c r="AC22" s="25"/>
       <c r="AD22" s="24"/>
@@ -5865,10 +5865,10 @@
         <f ca="1">INDIRECT("R[-2]C[0]",)*INDIRECT("R[0]C[-1]",)+INDIRECT("$C$9")*10</f>
         <v>#REF!</v>
       </c>
-      <c r="J23" s="58">
-        <v>0</v>
-      </c>
-      <c r="K23" s="59"/>
+      <c r="J23" s="10">
+        <v>0</v>
+      </c>
+      <c r="K23" s="11"/>
       <c r="L23" s="5">
         <v>0</v>
       </c>
@@ -5919,93 +5919,93 @@
       <c r="N24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O24" s="41" t="s">
+      <c r="O24" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="41" t="s">
+      <c r="P24" s="33"/>
+      <c r="Q24" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="R24" s="42"/>
-      <c r="S24" s="47" t="s">
+      <c r="R24" s="33"/>
+      <c r="S24" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="T24" s="47"/>
-      <c r="U24" s="47"/>
-      <c r="V24" s="47"/>
-      <c r="W24" s="47"/>
-      <c r="X24" s="48" t="s">
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="Y24" s="49"/>
-      <c r="Z24" s="49"/>
-      <c r="AA24" s="50"/>
-      <c r="AB24" s="20" t="s">
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="37"/>
+      <c r="AB24" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="AC24" s="21"/>
+      <c r="AC24" s="39"/>
       <c r="AD24" s="26" t="s">
         <v>35</v>
       </c>
       <c r="AE24" s="27"/>
     </row>
     <row r="25" spans="1:31" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="28">
         <v>1000</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="31">
         <v>4</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="28">
         <v>4</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="28">
         <f>45+J27</f>
         <v>45</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="28">
         <f>30+J27</f>
         <v>30</v>
       </c>
-      <c r="L25" s="10">
+      <c r="L25" s="28">
         <f>12+L27</f>
         <v>12</v>
       </c>
-      <c r="M25" s="10">
+      <c r="M25" s="28">
         <f>3+M27</f>
         <v>3</v>
       </c>
-      <c r="N25" s="10">
+      <c r="N25" s="28">
         <v>2</v>
       </c>
-      <c r="O25" s="43" t="s">
+      <c r="O25" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="43" t="s">
+      <c r="P25" s="13"/>
+      <c r="Q25" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="R25" s="44"/>
+      <c r="R25" s="13"/>
       <c r="S25" s="6" t="s">
         <v>40</v>
       </c>
       <c r="T25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="U25" s="38" t="s">
+      <c r="U25" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="V25" s="39"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="51" t="s">
+      <c r="V25" s="42"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="Y25" s="52"/>
-      <c r="Z25" s="52"/>
-      <c r="AA25" s="53"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="18"/>
       <c r="AB25" s="22">
         <f>J27*10+L27*20+M27*20+S27*30+T27*30+W27*80+X27*100+Y27*150+Z27*200</f>
         <v>0</v>
@@ -6021,19 +6021,19 @@
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="46"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="15"/>
       <c r="S26" s="7" t="str">
         <f>IF(S27=0,"初级",IF(S27=1,"中级",IF(S27=2,"上级","不合法")))</f>
         <v>初级</v>
@@ -6042,15 +6042,15 @@
         <f>IF(T27=0,"初级",IF(T27=1,"中级",IF(T27=2,"上级","不合法")))</f>
         <v>初级</v>
       </c>
-      <c r="U26" s="38" t="s">
+      <c r="U26" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="V26" s="39"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="54"/>
-      <c r="Y26" s="55"/>
-      <c r="Z26" s="55"/>
-      <c r="AA26" s="56"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="43"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="21"/>
       <c r="AB26" s="24"/>
       <c r="AC26" s="25"/>
       <c r="AD26" s="24"/>
@@ -6067,10 +6067,10 @@
         <f ca="1">INDIRECT("R[-2]C[0]",)*INDIRECT("R[0]C[-1]",)+INDIRECT("$C$9")*10</f>
         <v>#REF!</v>
       </c>
-      <c r="J27" s="58">
-        <v>0</v>
-      </c>
-      <c r="K27" s="59"/>
+      <c r="J27" s="10">
+        <v>0</v>
+      </c>
+      <c r="K27" s="11"/>
       <c r="L27" s="5">
         <v>0</v>
       </c>
@@ -6106,30 +6106,30 @@
       <c r="F28" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="28"/>
-      <c r="AA28" s="28"/>
-      <c r="AB28" s="28"/>
-      <c r="AC28" s="28"/>
-      <c r="AD28" s="28"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="44"/>
+      <c r="X28" s="44"/>
+      <c r="Y28" s="44"/>
+      <c r="Z28" s="44"/>
+      <c r="AA28" s="44"/>
+      <c r="AB28" s="44"/>
+      <c r="AC28" s="44"/>
+      <c r="AD28" s="44"/>
       <c r="AE28" s="27"/>
     </row>
     <row r="29" spans="1:31" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6163,75 +6163,75 @@
       <c r="N29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O29" s="41" t="s">
+      <c r="O29" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="41" t="s">
+      <c r="P29" s="33"/>
+      <c r="Q29" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="42"/>
-      <c r="S29" s="47" t="s">
+      <c r="R29" s="33"/>
+      <c r="S29" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="T29" s="47"/>
-      <c r="U29" s="47"/>
-      <c r="V29" s="47"/>
-      <c r="W29" s="47"/>
-      <c r="X29" s="48" t="s">
+      <c r="T29" s="34"/>
+      <c r="U29" s="34"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="34"/>
+      <c r="X29" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="Y29" s="49"/>
-      <c r="Z29" s="49"/>
-      <c r="AA29" s="50"/>
-      <c r="AB29" s="20" t="s">
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="36"/>
+      <c r="AA29" s="37"/>
+      <c r="AB29" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="AC29" s="21"/>
+      <c r="AC29" s="39"/>
       <c r="AD29" s="26" t="s">
         <v>35</v>
       </c>
       <c r="AE29" s="27"/>
     </row>
     <row r="30" spans="1:31" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="28">
         <v>300</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="31">
         <v>2</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="28">
         <v>2</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="28">
         <f>15+J32</f>
         <v>15</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K30" s="28">
         <f>20+J32</f>
         <v>20</v>
       </c>
-      <c r="L30" s="10">
+      <c r="L30" s="28">
         <v>6</v>
       </c>
-      <c r="M30" s="10">
-        <v>0</v>
-      </c>
-      <c r="N30" s="10">
+      <c r="M30" s="28">
+        <v>0</v>
+      </c>
+      <c r="N30" s="28">
         <f>IF(X32=0,1,2)</f>
         <v>1</v>
       </c>
-      <c r="O30" s="43" t="s">
+      <c r="O30" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="43" t="s">
+      <c r="P30" s="13"/>
+      <c r="Q30" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="R30" s="44"/>
+      <c r="R30" s="13"/>
       <c r="S30" s="6" t="s">
         <v>40</v>
       </c>
@@ -6241,16 +6241,16 @@
       <c r="U30" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="V30" s="38" t="s">
+      <c r="V30" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="W30" s="65"/>
-      <c r="X30" s="51" t="s">
+      <c r="W30" s="41"/>
+      <c r="X30" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="Y30" s="52"/>
-      <c r="Z30" s="52"/>
-      <c r="AA30" s="53"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="18"/>
       <c r="AB30" s="22">
         <f>J32*10+L32*20+S32*30+T32*30+U32*30+W32*80+X32*50+Y32*80+Z32*100</f>
         <v>0</v>
@@ -6263,19 +6263,19 @@
       <c r="AE30" s="23"/>
     </row>
     <row r="31" spans="1:31" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F31" s="11"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="46"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="15"/>
       <c r="S31" s="7" t="str">
         <f>IF(S32=0,"初级",IF(S32=1,"中级",IF(S32=2,"上级","不合法")))</f>
         <v>初级</v>
@@ -6288,14 +6288,14 @@
         <f>IF(U32=0,"初级",IF(U32=1,"中级",IF(U32=2,"上级","不合法")))</f>
         <v>初级</v>
       </c>
-      <c r="V31" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="W31" s="65"/>
-      <c r="X31" s="54"/>
-      <c r="Y31" s="55"/>
-      <c r="Z31" s="55"/>
-      <c r="AA31" s="56"/>
+      <c r="V31" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="W31" s="41"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="20"/>
+      <c r="Z31" s="20"/>
+      <c r="AA31" s="21"/>
       <c r="AB31" s="24"/>
       <c r="AC31" s="25"/>
       <c r="AD31" s="24"/>
@@ -6309,10 +6309,10 @@
         <f ca="1">INDIRECT("R[-2]C[0]",)*INDIRECT("R[0]C[-1]",)+INDIRECT("$C$9")*10</f>
         <v>#REF!</v>
       </c>
-      <c r="J32" s="58">
-        <v>0</v>
-      </c>
-      <c r="K32" s="59"/>
+      <c r="J32" s="10">
+        <v>0</v>
+      </c>
+      <c r="K32" s="11"/>
       <c r="L32" s="5">
         <v>0</v>
       </c>
@@ -6369,93 +6369,93 @@
       <c r="N33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O33" s="41" t="s">
+      <c r="O33" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="41" t="s">
+      <c r="P33" s="33"/>
+      <c r="Q33" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="R33" s="42"/>
-      <c r="S33" s="47" t="s">
+      <c r="R33" s="33"/>
+      <c r="S33" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="T33" s="47"/>
-      <c r="U33" s="47"/>
-      <c r="V33" s="47"/>
-      <c r="W33" s="47"/>
-      <c r="X33" s="48" t="s">
+      <c r="T33" s="34"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="34"/>
+      <c r="X33" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="Y33" s="49"/>
-      <c r="Z33" s="49"/>
-      <c r="AA33" s="50"/>
-      <c r="AB33" s="20" t="s">
+      <c r="Y33" s="36"/>
+      <c r="Z33" s="36"/>
+      <c r="AA33" s="37"/>
+      <c r="AB33" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="AC33" s="21"/>
+      <c r="AC33" s="39"/>
       <c r="AD33" s="26" t="s">
         <v>35</v>
       </c>
       <c r="AE33" s="27"/>
     </row>
     <row r="34" spans="6:31" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="28">
         <v>350</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="31">
         <v>2</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="28">
         <v>2</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J34" s="28">
         <f>20+J36</f>
         <v>20</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K34" s="28">
         <f>25+J36</f>
         <v>25</v>
       </c>
-      <c r="L34" s="10">
+      <c r="L34" s="28">
         <v>6</v>
       </c>
-      <c r="M34" s="10">
+      <c r="M34" s="28">
         <f>2+M36</f>
         <v>2</v>
       </c>
-      <c r="N34" s="10">
+      <c r="N34" s="28">
         <f>IF(X36=0,1,2)</f>
         <v>1</v>
       </c>
-      <c r="O34" s="43" t="s">
+      <c r="O34" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P34" s="44"/>
-      <c r="Q34" s="43" t="s">
+      <c r="P34" s="13"/>
+      <c r="Q34" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="R34" s="44"/>
+      <c r="R34" s="13"/>
       <c r="S34" s="6" t="s">
         <v>40</v>
       </c>
       <c r="T34" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="U34" s="38" t="s">
+      <c r="U34" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="V34" s="39"/>
-      <c r="W34" s="40"/>
-      <c r="X34" s="51" t="s">
+      <c r="V34" s="42"/>
+      <c r="W34" s="43"/>
+      <c r="X34" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="Y34" s="52"/>
-      <c r="Z34" s="52"/>
-      <c r="AA34" s="53"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="18"/>
       <c r="AB34" s="22">
         <f>J36*10+L36*20+M36*20+S36*30+T36*30+W36*80+X36*50+Y36*80+Z36*100</f>
         <v>0</v>
@@ -6468,19 +6468,19 @@
       <c r="AE34" s="23"/>
     </row>
     <row r="35" spans="6:31" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F35" s="11"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="45"/>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="45"/>
-      <c r="R35" s="46"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="15"/>
       <c r="S35" s="7" t="str">
         <f>IF(S36=0,"初级",IF(S36=1,"中级",IF(S36=2,"上级","不合法")))</f>
         <v>初级</v>
@@ -6489,15 +6489,15 @@
         <f>IF(T36=0,"初级",IF(T36=1,"中级",IF(T36=2,"上级","不合法")))</f>
         <v>初级</v>
       </c>
-      <c r="U35" s="38" t="s">
+      <c r="U35" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="V35" s="39"/>
-      <c r="W35" s="40"/>
-      <c r="X35" s="54"/>
-      <c r="Y35" s="55"/>
-      <c r="Z35" s="55"/>
-      <c r="AA35" s="56"/>
+      <c r="V35" s="42"/>
+      <c r="W35" s="43"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="20"/>
+      <c r="Z35" s="20"/>
+      <c r="AA35" s="21"/>
       <c r="AB35" s="24"/>
       <c r="AC35" s="25"/>
       <c r="AD35" s="24"/>
@@ -6511,10 +6511,10 @@
         <f ca="1">INDIRECT("R[-2]C[0]",)*INDIRECT("R[0]C[-1]",)+INDIRECT("$C$9")*10</f>
         <v>#REF!</v>
       </c>
-      <c r="J36" s="58">
-        <v>0</v>
-      </c>
-      <c r="K36" s="59"/>
+      <c r="J36" s="10">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11"/>
       <c r="L36" s="5">
         <v>0</v>
       </c>
@@ -6571,76 +6571,76 @@
       <c r="N37" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O37" s="41" t="s">
+      <c r="O37" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="41" t="s">
+      <c r="P37" s="33"/>
+      <c r="Q37" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="R37" s="42"/>
-      <c r="S37" s="47" t="s">
+      <c r="R37" s="33"/>
+      <c r="S37" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="T37" s="47"/>
-      <c r="U37" s="47"/>
-      <c r="V37" s="47"/>
-      <c r="W37" s="47"/>
-      <c r="X37" s="48" t="s">
+      <c r="T37" s="34"/>
+      <c r="U37" s="34"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="34"/>
+      <c r="X37" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="Y37" s="49"/>
-      <c r="Z37" s="49"/>
-      <c r="AA37" s="50"/>
-      <c r="AB37" s="20" t="s">
+      <c r="Y37" s="36"/>
+      <c r="Z37" s="36"/>
+      <c r="AA37" s="37"/>
+      <c r="AB37" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="AC37" s="21"/>
+      <c r="AC37" s="39"/>
       <c r="AD37" s="26" t="s">
         <v>35</v>
       </c>
       <c r="AE37" s="27"/>
     </row>
     <row r="38" spans="6:31" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="28">
         <v>550</v>
       </c>
-      <c r="H38" s="18">
+      <c r="H38" s="31">
         <v>3</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I38" s="28">
         <v>3</v>
       </c>
-      <c r="J38" s="10">
+      <c r="J38" s="28">
         <f>30+J40</f>
         <v>30</v>
       </c>
-      <c r="K38" s="10">
+      <c r="K38" s="28">
         <f>20</f>
         <v>20</v>
       </c>
-      <c r="L38" s="10">
+      <c r="L38" s="28">
         <v>7</v>
       </c>
-      <c r="M38" s="10">
+      <c r="M38" s="28">
         <f>1+M40</f>
         <v>1</v>
       </c>
-      <c r="N38" s="10">
+      <c r="N38" s="28">
         <f>IF(X40=0,1,2)</f>
         <v>1</v>
       </c>
-      <c r="O38" s="43" t="s">
+      <c r="O38" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P38" s="44"/>
-      <c r="Q38" s="43" t="s">
+      <c r="P38" s="13"/>
+      <c r="Q38" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="R38" s="44"/>
+      <c r="R38" s="13"/>
       <c r="S38" s="6" t="s">
         <v>40</v>
       </c>
@@ -6650,16 +6650,16 @@
       <c r="U38" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="V38" s="38" t="s">
+      <c r="V38" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="W38" s="65"/>
-      <c r="X38" s="51" t="s">
+      <c r="W38" s="41"/>
+      <c r="X38" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="Y38" s="52"/>
-      <c r="Z38" s="52"/>
-      <c r="AA38" s="53"/>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="17"/>
+      <c r="AA38" s="18"/>
       <c r="AB38" s="22">
         <f>J40*10+L40*20+M40*20+S40*30+T40*30+U40*30+W40*80+X40*50+Y40*80+Z40*100</f>
         <v>0</v>
@@ -6672,19 +6672,19 @@
       <c r="AE38" s="23"/>
     </row>
     <row r="39" spans="6:31" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F39" s="11"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="46"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="15"/>
       <c r="S39" s="7" t="str">
         <f>IF(S40=0,"初级",IF(S40=1,"中级",IF(S40=2,"上级","不合法")))</f>
         <v>初级</v>
@@ -6697,14 +6697,14 @@
         <f>IF(U40=0,"初级",IF(U40=1,"中级",IF(U40=2,"上级","不合法")))</f>
         <v>初级</v>
       </c>
-      <c r="V39" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="W39" s="65"/>
-      <c r="X39" s="54"/>
-      <c r="Y39" s="55"/>
-      <c r="Z39" s="55"/>
-      <c r="AA39" s="56"/>
+      <c r="V39" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="W39" s="41"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="20"/>
+      <c r="Z39" s="20"/>
+      <c r="AA39" s="21"/>
       <c r="AB39" s="24"/>
       <c r="AC39" s="25"/>
       <c r="AD39" s="24"/>
@@ -6780,76 +6780,76 @@
       <c r="N41" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O41" s="41" t="s">
+      <c r="O41" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="P41" s="42"/>
-      <c r="Q41" s="41" t="s">
+      <c r="P41" s="33"/>
+      <c r="Q41" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="R41" s="42"/>
-      <c r="S41" s="47" t="s">
+      <c r="R41" s="33"/>
+      <c r="S41" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="T41" s="47"/>
-      <c r="U41" s="47"/>
-      <c r="V41" s="47"/>
-      <c r="W41" s="47"/>
-      <c r="X41" s="48" t="s">
+      <c r="T41" s="34"/>
+      <c r="U41" s="34"/>
+      <c r="V41" s="34"/>
+      <c r="W41" s="34"/>
+      <c r="X41" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="Y41" s="49"/>
-      <c r="Z41" s="49"/>
-      <c r="AA41" s="50"/>
-      <c r="AB41" s="20" t="s">
+      <c r="Y41" s="36"/>
+      <c r="Z41" s="36"/>
+      <c r="AA41" s="37"/>
+      <c r="AB41" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="AC41" s="21"/>
+      <c r="AC41" s="39"/>
       <c r="AD41" s="26" t="s">
         <v>35</v>
       </c>
       <c r="AE41" s="27"/>
     </row>
     <row r="42" spans="6:31" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G42" s="28">
         <v>750</v>
       </c>
-      <c r="H42" s="18">
+      <c r="H42" s="31">
         <v>3</v>
       </c>
-      <c r="I42" s="10">
+      <c r="I42" s="28">
         <v>3</v>
       </c>
-      <c r="J42" s="10">
+      <c r="J42" s="28">
         <f>35+J44</f>
         <v>35</v>
       </c>
-      <c r="K42" s="10">
+      <c r="K42" s="28">
         <f>30+J44</f>
         <v>30</v>
       </c>
-      <c r="L42" s="10">
+      <c r="L42" s="28">
         <v>7</v>
       </c>
-      <c r="M42" s="10">
+      <c r="M42" s="28">
         <f>2+M44</f>
         <v>2</v>
       </c>
-      <c r="N42" s="10">
+      <c r="N42" s="28">
         <f>IF(X44=0,1,2)</f>
         <v>1</v>
       </c>
-      <c r="O42" s="43" t="s">
+      <c r="O42" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P42" s="44"/>
-      <c r="Q42" s="43" t="s">
+      <c r="P42" s="13"/>
+      <c r="Q42" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R42" s="44"/>
+      <c r="R42" s="13"/>
       <c r="S42" s="6" t="s">
         <v>40</v>
       </c>
@@ -6859,16 +6859,16 @@
       <c r="U42" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="V42" s="38" t="s">
+      <c r="V42" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="W42" s="65"/>
-      <c r="X42" s="51" t="s">
+      <c r="W42" s="41"/>
+      <c r="X42" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="Y42" s="52"/>
-      <c r="Z42" s="52"/>
-      <c r="AA42" s="53"/>
+      <c r="Y42" s="17"/>
+      <c r="Z42" s="17"/>
+      <c r="AA42" s="18"/>
       <c r="AB42" s="22">
         <f>J44*10+L44*20+M44*20+S44*30+T44*30+U44*30+W44*80+X44*80+Y44*100+Z44*150</f>
         <v>0</v>
@@ -6881,19 +6881,19 @@
       <c r="AE42" s="23"/>
     </row>
     <row r="43" spans="6:31" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F43" s="11"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="45"/>
-      <c r="P43" s="46"/>
-      <c r="Q43" s="45"/>
-      <c r="R43" s="46"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="15"/>
       <c r="S43" s="7" t="str">
         <f>IF(S44=0,"初级",IF(S44=1,"中级",IF(S44=2,"上级","不合法")))</f>
         <v>初级</v>
@@ -6906,14 +6906,14 @@
         <f>IF(U44=0,"初级",IF(U44=1,"中级",IF(U44=2,"上级","不合法")))</f>
         <v>初级</v>
       </c>
-      <c r="V43" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="W43" s="65"/>
-      <c r="X43" s="54"/>
-      <c r="Y43" s="55"/>
-      <c r="Z43" s="55"/>
-      <c r="AA43" s="56"/>
+      <c r="V43" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="W43" s="41"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="20"/>
+      <c r="Z43" s="20"/>
+      <c r="AA43" s="21"/>
       <c r="AB43" s="24"/>
       <c r="AC43" s="25"/>
       <c r="AD43" s="24"/>
@@ -6927,10 +6927,10 @@
         <f ca="1">INDIRECT("R[-2]C[0]",)*INDIRECT("R[0]C[-1]",)+INDIRECT("$C$9")*10</f>
         <v>#REF!</v>
       </c>
-      <c r="J44" s="58">
-        <v>0</v>
-      </c>
-      <c r="K44" s="59"/>
+      <c r="J44" s="10">
+        <v>0</v>
+      </c>
+      <c r="K44" s="11"/>
       <c r="L44" s="5">
         <v>0</v>
       </c>
@@ -6990,76 +6990,76 @@
       <c r="N45" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O45" s="41" t="s">
+      <c r="O45" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="42"/>
-      <c r="Q45" s="41" t="s">
+      <c r="P45" s="33"/>
+      <c r="Q45" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="R45" s="42"/>
-      <c r="S45" s="47" t="s">
+      <c r="R45" s="33"/>
+      <c r="S45" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="T45" s="47"/>
-      <c r="U45" s="47"/>
-      <c r="V45" s="47"/>
-      <c r="W45" s="47"/>
-      <c r="X45" s="48" t="s">
+      <c r="T45" s="34"/>
+      <c r="U45" s="34"/>
+      <c r="V45" s="34"/>
+      <c r="W45" s="34"/>
+      <c r="X45" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="Y45" s="49"/>
-      <c r="Z45" s="49"/>
-      <c r="AA45" s="50"/>
-      <c r="AB45" s="20" t="s">
+      <c r="Y45" s="36"/>
+      <c r="Z45" s="36"/>
+      <c r="AA45" s="37"/>
+      <c r="AB45" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="AC45" s="21"/>
+      <c r="AC45" s="39"/>
       <c r="AD45" s="26" t="s">
         <v>35</v>
       </c>
       <c r="AE45" s="27"/>
     </row>
     <row r="46" spans="6:31" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G46" s="28">
         <v>1000</v>
       </c>
-      <c r="H46" s="18">
+      <c r="H46" s="31">
         <v>4</v>
       </c>
-      <c r="I46" s="10">
+      <c r="I46" s="28">
         <v>4</v>
       </c>
-      <c r="J46" s="10">
+      <c r="J46" s="28">
         <f>35+J48</f>
         <v>35</v>
       </c>
-      <c r="K46" s="10">
+      <c r="K46" s="28">
         <f>30+J48</f>
         <v>30</v>
       </c>
-      <c r="L46" s="10">
+      <c r="L46" s="28">
         <v>8</v>
       </c>
-      <c r="M46" s="10">
+      <c r="M46" s="28">
         <f>2+M48</f>
         <v>2</v>
       </c>
-      <c r="N46" s="10">
+      <c r="N46" s="28">
         <f>IF(X48=0,1,2)</f>
         <v>1</v>
       </c>
-      <c r="O46" s="43" t="s">
+      <c r="O46" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P46" s="44"/>
-      <c r="Q46" s="43" t="s">
+      <c r="P46" s="13"/>
+      <c r="Q46" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="R46" s="44"/>
+      <c r="R46" s="13"/>
       <c r="S46" s="6" t="s">
         <v>40</v>
       </c>
@@ -7075,12 +7075,12 @@
       <c r="W46" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="X46" s="51" t="s">
+      <c r="X46" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="Y46" s="52"/>
-      <c r="Z46" s="52"/>
-      <c r="AA46" s="53"/>
+      <c r="Y46" s="17"/>
+      <c r="Z46" s="17"/>
+      <c r="AA46" s="18"/>
       <c r="AB46" s="22">
         <f>J48*10+L48*20+M48*20+S48*30+T48*30+U48*30+V48*30+W48*80+X48*100+Y48*150+Z48*200</f>
         <v>0</v>
@@ -7093,19 +7093,19 @@
       <c r="AE46" s="23"/>
     </row>
     <row r="47" spans="6:31" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F47" s="11"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="45"/>
-      <c r="P47" s="46"/>
-      <c r="Q47" s="45"/>
-      <c r="R47" s="46"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="15"/>
       <c r="S47" s="7" t="str">
         <f>IF(S48=0,"初级",IF(S48=1,"中级",IF(S48=2,"上级","不合法")))</f>
         <v>初级</v>
@@ -7125,10 +7125,10 @@
       <c r="W47" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="X47" s="54"/>
-      <c r="Y47" s="55"/>
-      <c r="Z47" s="55"/>
-      <c r="AA47" s="56"/>
+      <c r="X47" s="19"/>
+      <c r="Y47" s="20"/>
+      <c r="Z47" s="20"/>
+      <c r="AA47" s="21"/>
       <c r="AB47" s="24"/>
       <c r="AC47" s="25"/>
       <c r="AD47" s="24"/>
@@ -7142,10 +7142,10 @@
         <f ca="1">INDIRECT("R[-2]C[0]",)*INDIRECT("R[0]C[-1]",)+INDIRECT("$C$9")*10</f>
         <v>#REF!</v>
       </c>
-      <c r="J48" s="58">
-        <v>0</v>
-      </c>
-      <c r="K48" s="59"/>
+      <c r="J48" s="10">
+        <v>0</v>
+      </c>
+      <c r="K48" s="11"/>
       <c r="L48" s="5">
         <v>0</v>
       </c>
@@ -7183,222 +7183,23 @@
     <row r="49" ht="20.399999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="257">
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="O46:P47"/>
-    <mergeCell ref="Q46:R47"/>
-    <mergeCell ref="X46:AA47"/>
-    <mergeCell ref="AB46:AC47"/>
-    <mergeCell ref="AD46:AE47"/>
-    <mergeCell ref="AD45:AE45"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="N46:N47"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="S45:W45"/>
-    <mergeCell ref="X45:AA45"/>
-    <mergeCell ref="AB45:AC45"/>
-    <mergeCell ref="O42:P43"/>
-    <mergeCell ref="Q42:R43"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="X42:AA43"/>
-    <mergeCell ref="AB42:AC43"/>
-    <mergeCell ref="AD42:AE43"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="AD41:AE41"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="X38:AA39"/>
-    <mergeCell ref="AB38:AC39"/>
-    <mergeCell ref="AD38:AE39"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="S41:W41"/>
-    <mergeCell ref="X41:AA41"/>
-    <mergeCell ref="AB41:AC41"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="O38:P39"/>
-    <mergeCell ref="Q38:R39"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S37:W37"/>
-    <mergeCell ref="X37:AA37"/>
-    <mergeCell ref="AB37:AC37"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="X34:AA35"/>
-    <mergeCell ref="AB34:AC35"/>
-    <mergeCell ref="AD34:AE35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="U34:W34"/>
-    <mergeCell ref="U35:W35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="O34:P35"/>
-    <mergeCell ref="Q34:R35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:W33"/>
-    <mergeCell ref="X33:AA33"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="X30:AA31"/>
-    <mergeCell ref="AB30:AC31"/>
-    <mergeCell ref="AD30:AE31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="O30:P31"/>
-    <mergeCell ref="Q30:R31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="F28:AE28"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="S29:W29"/>
-    <mergeCell ref="X29:AA29"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="AD29:AE29"/>
-    <mergeCell ref="O25:P26"/>
-    <mergeCell ref="Q25:R26"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="X25:AA26"/>
-    <mergeCell ref="AB25:AC26"/>
-    <mergeCell ref="AD25:AE26"/>
-    <mergeCell ref="U26:W26"/>
-    <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="X24:AA24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="O21:P22"/>
-    <mergeCell ref="Q21:R22"/>
-    <mergeCell ref="S21:W22"/>
-    <mergeCell ref="X21:AA22"/>
-    <mergeCell ref="AB21:AC22"/>
-    <mergeCell ref="AD21:AE22"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="X17:AA18"/>
-    <mergeCell ref="AB17:AC18"/>
-    <mergeCell ref="AD17:AE18"/>
-    <mergeCell ref="S17:W18"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:W20"/>
-    <mergeCell ref="X20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O17:P18"/>
-    <mergeCell ref="Q17:R18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="X16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="O13:P14"/>
-    <mergeCell ref="Q13:R14"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="X13:AA14"/>
-    <mergeCell ref="AB13:AC14"/>
-    <mergeCell ref="AD13:AE14"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="S8:W8"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:P10"/>
-    <mergeCell ref="Q9:R10"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="X9:AA10"/>
-    <mergeCell ref="AB9:AC10"/>
-    <mergeCell ref="AD9:AE10"/>
-    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
     <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AB5:AC6"/>
     <mergeCell ref="AD4:AE4"/>
@@ -7423,23 +7224,222 @@
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="C7:D8"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="S8:W8"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:P10"/>
+    <mergeCell ref="Q9:R10"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="X9:AA10"/>
+    <mergeCell ref="AB9:AC10"/>
+    <mergeCell ref="AD9:AE10"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:W16"/>
+    <mergeCell ref="X16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="O13:P14"/>
+    <mergeCell ref="Q13:R14"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="X13:AA14"/>
+    <mergeCell ref="AB13:AC14"/>
+    <mergeCell ref="AD13:AE14"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O17:P18"/>
+    <mergeCell ref="Q17:R18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="X17:AA18"/>
+    <mergeCell ref="AB17:AC18"/>
+    <mergeCell ref="AD17:AE18"/>
+    <mergeCell ref="S17:W18"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:W20"/>
+    <mergeCell ref="X20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AD21:AE22"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:W24"/>
+    <mergeCell ref="X24:AA24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="O21:P22"/>
+    <mergeCell ref="Q21:R22"/>
+    <mergeCell ref="S21:W22"/>
+    <mergeCell ref="X21:AA22"/>
+    <mergeCell ref="AB21:AC22"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="F28:AE28"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S29:W29"/>
+    <mergeCell ref="X29:AA29"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="AD29:AE29"/>
+    <mergeCell ref="O25:P26"/>
+    <mergeCell ref="Q25:R26"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="X25:AA26"/>
+    <mergeCell ref="AB25:AC26"/>
+    <mergeCell ref="AD25:AE26"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O30:P31"/>
+    <mergeCell ref="Q30:R31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:W33"/>
+    <mergeCell ref="X33:AA33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="X30:AA31"/>
+    <mergeCell ref="AB30:AC31"/>
+    <mergeCell ref="AD30:AE31"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="U34:W34"/>
+    <mergeCell ref="U35:W35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="O34:P35"/>
+    <mergeCell ref="Q34:R35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S37:W37"/>
+    <mergeCell ref="X37:AA37"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="X34:AA35"/>
+    <mergeCell ref="AB34:AC35"/>
+    <mergeCell ref="AD34:AE35"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="O38:P39"/>
+    <mergeCell ref="Q38:R39"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="X38:AA39"/>
+    <mergeCell ref="AB38:AC39"/>
+    <mergeCell ref="AD38:AE39"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:W41"/>
+    <mergeCell ref="X41:AA41"/>
+    <mergeCell ref="AB41:AC41"/>
+    <mergeCell ref="AD42:AE43"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="AD41:AE41"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="S45:W45"/>
+    <mergeCell ref="X45:AA45"/>
+    <mergeCell ref="AB45:AC45"/>
+    <mergeCell ref="O42:P43"/>
+    <mergeCell ref="Q42:R43"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="X42:AA43"/>
+    <mergeCell ref="AB42:AC43"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="O46:P47"/>
+    <mergeCell ref="Q46:R47"/>
+    <mergeCell ref="X46:AA47"/>
+    <mergeCell ref="AB46:AC47"/>
+    <mergeCell ref="AD46:AE47"/>
+    <mergeCell ref="AD45:AE45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="N46:N47"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
